--- a/corruption_vendor_dates.xlsx
+++ b/corruption_vendor_dates.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>Rotation 1</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Surging Vitality</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +470,7 @@
     <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +483,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -491,8 +497,11 @@
       <c r="D2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -502,8 +511,11 @@
       <c r="D3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -513,8 +525,11 @@
       <c r="D4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -524,8 +539,11 @@
       <c r="D5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -535,8 +553,11 @@
       <c r="D6">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -546,8 +567,11 @@
       <c r="D7">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,8 +584,11 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -571,8 +598,11 @@
       <c r="D10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -582,8 +612,11 @@
       <c r="D11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -593,8 +626,11 @@
       <c r="D12">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>13</v>
       </c>
@@ -604,8 +640,11 @@
       <c r="D13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -615,8 +654,11 @@
       <c r="D14">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -626,8 +668,11 @@
       <c r="D15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -637,8 +682,11 @@
       <c r="D16">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -651,8 +699,11 @@
       <c r="D18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -662,8 +713,11 @@
       <c r="D19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -673,8 +727,11 @@
       <c r="D20">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -684,8 +741,11 @@
       <c r="D21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -695,8 +755,11 @@
       <c r="D22">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -706,8 +769,11 @@
       <c r="D23">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -717,8 +783,11 @@
       <c r="D24">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -728,8 +797,11 @@
       <c r="D25">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -742,8 +814,11 @@
       <c r="D27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -753,8 +828,11 @@
       <c r="D28">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>19</v>
       </c>
@@ -764,8 +842,11 @@
       <c r="D29">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>22</v>
       </c>
@@ -775,8 +856,11 @@
       <c r="D30">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>9</v>
       </c>
@@ -786,8 +870,11 @@
       <c r="D31">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>6</v>
       </c>
@@ -797,8 +884,11 @@
       <c r="D32">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -808,8 +898,11 @@
       <c r="D33">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -822,8 +915,11 @@
       <c r="D35" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -833,8 +929,11 @@
       <c r="D36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -844,8 +943,11 @@
       <c r="D37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -855,8 +957,11 @@
       <c r="D38">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>20</v>
       </c>
@@ -866,8 +971,11 @@
       <c r="D39">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>17</v>
       </c>
@@ -877,8 +985,11 @@
       <c r="D40">
         <v>75</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>19</v>
       </c>
@@ -888,8 +999,11 @@
       <c r="D41">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -902,8 +1016,11 @@
       <c r="D43" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>6</v>
       </c>
@@ -913,8 +1030,11 @@
       <c r="D44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>20</v>
       </c>
@@ -924,8 +1044,11 @@
       <c r="D45">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>11</v>
       </c>
@@ -935,8 +1058,11 @@
       <c r="D46">
         <v>35</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>29</v>
       </c>
@@ -946,8 +1072,11 @@
       <c r="D47">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>22</v>
       </c>
@@ -957,8 +1086,11 @@
       <c r="D48">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>7</v>
       </c>
@@ -968,8 +1100,11 @@
       <c r="D49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -979,8 +1114,11 @@
       <c r="D50">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
@@ -993,8 +1131,11 @@
       <c r="D52" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -1004,8 +1145,11 @@
       <c r="D53">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>14</v>
       </c>
@@ -1015,8 +1159,11 @@
       <c r="D54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>17</v>
       </c>
@@ -1026,8 +1173,11 @@
       <c r="D55">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>5</v>
       </c>
@@ -1037,8 +1187,11 @@
       <c r="D56">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1201,11 @@
       <c r="D57">
         <v>66</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>13</v>
       </c>
@@ -1059,8 +1215,11 @@
       <c r="D58">
         <v>35</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>28</v>
       </c>
@@ -1070,8 +1229,11 @@
       <c r="D59">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>26</v>
       </c>
@@ -1084,8 +1246,11 @@
       <c r="D61" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>22</v>
       </c>
@@ -1095,8 +1260,11 @@
       <c r="D62">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>13</v>
       </c>
@@ -1106,8 +1274,11 @@
       <c r="D63">
         <v>15</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>8</v>
       </c>
@@ -1117,8 +1288,11 @@
       <c r="D64">
         <v>35</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>14</v>
       </c>
@@ -1128,8 +1302,11 @@
       <c r="D65">
         <v>15</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>24</v>
       </c>
@@ -1139,8 +1316,11 @@
       <c r="D66">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>29</v>
       </c>
@@ -1149,6 +1329,9 @@
       </c>
       <c r="D67">
         <v>35</v>
+      </c>
+      <c r="E67">
+        <v>7875</v>
       </c>
     </row>
   </sheetData>
